--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -41,7 +41,7 @@
     <t>OrchestratorQueueFolder</t>
   </si>
   <si>
-    <t>My Workspace</t>
+    <t>Shared</t>
   </si>
   <si>
     <t>Folder name. The value must match a folder defined in Orchestrator and queue specified as OrchestratorQueueName should be created in this folder. For classic folders leave the value field empty.</t>
